--- a/biology/Zoologie/Circeaster/Circeaster.xlsx
+++ b/biology/Zoologie/Circeaster/Circeaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circeaster est un genre d'étoiles de mer abyssales qui appartient à la famille des Goniasteridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des étoiles de taille moyenne, avec un large disque central pentagonal et des bras assez fins. Elles sont aplaties, et entourées par des plaques marginales épaisses et très visibles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des étoiles de taille moyenne, avec un large disque central pentagonal et des bras assez fins. Elles sont aplaties, et entourées par des plaques marginales épaisses et très visibles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un genre d'étoiles abyssales, vivant entre 320 et 3 000 m de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un genre d'étoiles abyssales, vivant entre 320 et 3 000 m de profondeur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Biologie et phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est génétiquement proche du genre Lydiaster[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est génétiquement proche du genre Lydiaster.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (5 novembre 2014)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (5 novembre 2014) :
 Circeaster americanus (A.H. Clark, 1916)
 Circeaster arandae Mah, 2006
 Circeaster helenae Mah, 2006
